--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198226.761105619</v>
+        <v>198590.2822994798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12936495.09829998</v>
+        <v>12617883.90382514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11255880.8018774</v>
+        <v>10943609.97017262</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6039551.783608456</v>
+        <v>6170782.620060605</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>169.2103782980058</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13.89851841884233</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +743,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>27.46801669177194</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>144.6175193369145</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.64820379250453</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850582</v>
       </c>
     </row>
     <row r="5">
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.6465684039911</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>343.646568403991</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="E5" t="n">
+      <c r="Y5" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="F5" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>18.15620231214755</v>
+        <v>144.6175193369145</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>166.7165542762734</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220193</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C8" t="n">
+        <v>343.646568403991</v>
+      </c>
+      <c r="D8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D8" t="n">
-        <v>343.646568403991</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1214,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>52.25285621099523</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>69.5477705287787</v>
       </c>
     </row>
     <row r="10">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>98.94574135710913</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,61 +1384,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="X11" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="H11" t="n">
-        <v>307.7994123985592</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>133.9282644538401</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>292.0716713018084</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>353.8766502980249</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>119.5542744822425</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -1467,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1512,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>89.66257060530309</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1527797502169</v>
+        <v>132.9702822142388</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>47.48203715814127</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y14" t="n">
         <v>390.1527797502169</v>
@@ -1689,22 +1691,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>106.1331548337414</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>386.8650699901659</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>313.3687246458798</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,10 +1925,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385435</v>
       </c>
       <c r="D18" t="n">
-        <v>84.38575314627018</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
@@ -1941,7 +1943,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2020,7 +2022,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.0911530820968</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.4964215242407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>16.17050839795085</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>228.0427830422836</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>28.0149076090959</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2293,10 +2295,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>98.94574135710913</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,22 +2320,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>40.39502321397676</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>168.2629942913231</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>20.01122713432967</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>85.96073959020934</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>64.39101971897887</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>36.22155466556723</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.64820379250408</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2719,19 +2721,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2801,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.01604593077231</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.6425927105685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>25.5069533435032</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>29.11907675700187</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>140.2277898563337</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3041,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>12.64204939395773</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>65.42520756919144</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>266.2723283900668</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3278,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>401.9511281772666</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>132.6542853067679</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>27.35334490128979</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.4216953850584</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>242.2262659066072</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>298.9302540644641</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092309</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>57.68485424712813</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>217.3859935094225</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>314.6463319409498</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>40.39502321397722</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3834,7 +3836,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
         <v>20.54110546596223</v>
@@ -3901,10 +3903,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>95.60932482615992</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3913,7 +3915,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.457393211901582</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>258.1583233478934</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>383.5604440308339</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
@@ -4065,7 +4067,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>105.9202115588047</v>
@@ -4119,10 +4121,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>67.22154917350237</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4135,16 +4137,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507632</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.6028925567243</v>
+        <v>202.131796418407</v>
       </c>
       <c r="C2" t="n">
-        <v>131.6028925567243</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D2" t="n">
-        <v>131.6028925567243</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E2" t="n">
-        <v>131.6028925567243</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F2" t="n">
-        <v>131.6028925567243</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G2" t="n">
-        <v>131.6028925567243</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I2" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K2" t="n">
-        <v>671.6489458004863</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L2" t="n">
-        <v>671.6489458004863</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M2" t="n">
-        <v>671.6489458004863</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N2" t="n">
-        <v>671.6489458004863</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O2" t="n">
-        <v>812.642214563296</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P2" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q2" t="n">
         <v>1520.054473311303</v>
@@ -4355,25 +4357,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>1303.550627260378</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V2" t="n">
-        <v>1303.550627260378</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W2" t="n">
-        <v>919.7903263955463</v>
+        <v>596.225513337818</v>
       </c>
       <c r="X2" t="n">
-        <v>525.6966094761353</v>
+        <v>596.225513337818</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.6028925567243</v>
+        <v>596.225513337818</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.5571472368467</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C3" t="n">
-        <v>377.5620759857924</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D3" t="n">
-        <v>260.6649182051848</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E3" t="n">
-        <v>140.1721021975128</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F3" t="n">
         <v>31.21222238001735</v>
@@ -4416,10 +4418,10 @@
         <v>224.0250799426506</v>
       </c>
       <c r="M3" t="n">
-        <v>610.2763318953653</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="N3" t="n">
-        <v>610.2763318953653</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="O3" t="n">
         <v>794.9558830015396</v>
@@ -4434,25 +4436,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U3" t="n">
-        <v>1414.532816640348</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1200.821289633382</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W3" t="n">
-        <v>987.5881213697105</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X3" t="n">
-        <v>811.2621395086032</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.8601798724333</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="4">
@@ -4489,7 +4491,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L4" t="n">
         <v>459.7441997875264</v>
@@ -4510,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="W4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="X4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="Y4" t="n">
-        <v>1149.483652269542</v>
+        <v>1308.245779075198</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.49337313825</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.49337313825</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D5" t="n">
-        <v>819.3996562188394</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E5" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F5" t="n">
         <v>31.21222238001735</v>
@@ -4565,28 +4567,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K5" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L5" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M5" t="n">
-        <v>671.6489458004863</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="N5" t="n">
-        <v>812.642214563296</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O5" t="n">
-        <v>1198.893466516011</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P5" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R5" t="n">
         <v>1560.611119000868</v>
@@ -4607,10 +4609,10 @@
         <v>1560.611119000868</v>
       </c>
       <c r="X5" t="n">
-        <v>1560.611119000868</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.611119000868</v>
+        <v>772.4236851620456</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.2958513022677</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C6" t="n">
-        <v>505.3007800512135</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D6" t="n">
-        <v>388.4036222706059</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E6" t="n">
-        <v>267.9108062629339</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F6" t="n">
-        <v>158.9509264454385</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G6" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H6" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
@@ -4647,25 +4649,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K6" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L6" t="n">
-        <v>438.2641504114549</v>
+        <v>372.2978437800934</v>
       </c>
       <c r="M6" t="n">
-        <v>438.2641504114549</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N6" t="n">
-        <v>824.5154023641696</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O6" t="n">
-        <v>824.5154023641696</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="P6" t="n">
-        <v>1210.766654316884</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q6" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R6" t="n">
         <v>1560.611119000868</v>
@@ -4677,19 +4679,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U6" t="n">
-        <v>1542.271520705769</v>
+        <v>1414.532816640348</v>
       </c>
       <c r="V6" t="n">
-        <v>1328.559993698803</v>
+        <v>1200.821289633382</v>
       </c>
       <c r="W6" t="n">
-        <v>1115.326825435131</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="X6" t="n">
-        <v>939.0008435740243</v>
+        <v>811.2621395086032</v>
       </c>
       <c r="Y6" t="n">
-        <v>779.5988839378543</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.21222238001735</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C7" t="n">
-        <v>31.21222238001735</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D7" t="n">
-        <v>31.21222238001735</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E7" t="n">
-        <v>31.21222238001735</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F7" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G7" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H7" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
@@ -4753,22 +4755,22 @@
         <v>1288.946632556178</v>
       </c>
       <c r="T7" t="n">
-        <v>1049.39789353288</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U7" t="n">
-        <v>766.5997460790038</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="V7" t="n">
-        <v>492.7140010185257</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="W7" t="n">
-        <v>218.9119287740617</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="X7" t="n">
-        <v>218.9119287740617</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.9119287740617</v>
+        <v>1288.946632556178</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>772.4236851620456</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C8" t="n">
-        <v>378.3299682426345</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D8" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E8" t="n">
         <v>31.21222238001735</v>
@@ -4808,22 +4810,22 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L8" t="n">
-        <v>853.1988602528609</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M8" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="N8" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O8" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P8" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R8" t="n">
         <v>1560.611119000868</v>
@@ -4847,7 +4849,7 @@
         <v>1560.611119000868</v>
       </c>
       <c r="Y8" t="n">
-        <v>1166.517402081457</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>192.9527650369019</v>
+        <v>282.1044514116792</v>
       </c>
       <c r="C9" t="n">
-        <v>140.1721021975128</v>
+        <v>148.1093801606249</v>
       </c>
       <c r="D9" t="n">
-        <v>140.1721021975128</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E9" t="n">
-        <v>140.1721021975128</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F9" t="n">
         <v>31.21222238001735</v>
@@ -4884,22 +4886,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="L9" t="n">
         <v>610.2763318953653</v>
       </c>
-      <c r="L9" t="n">
-        <v>758.5490957328082</v>
-      </c>
       <c r="M9" t="n">
-        <v>1144.800347685523</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N9" t="n">
-        <v>1144.800347685523</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O9" t="n">
-        <v>1531.051599638238</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q9" t="n">
         <v>1531.051599638238</v>
@@ -4926,7 +4928,7 @@
         <v>492.6577573086585</v>
       </c>
       <c r="Y9" t="n">
-        <v>333.2557976724885</v>
+        <v>422.4074840472659</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.21222238001735</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="C10" t="n">
-        <v>31.21222238001735</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D10" t="n">
-        <v>31.21222238001735</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E10" t="n">
-        <v>31.21222238001735</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F10" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4993,19 +4995,19 @@
         <v>1049.39789353288</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5997460790038</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V10" t="n">
-        <v>492.7140010185257</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="W10" t="n">
-        <v>213.6443365274001</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="X10" t="n">
-        <v>31.21222238001735</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.21222238001735</v>
+        <v>1049.39789353288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C11" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D11" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E11" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F11" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G11" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H11" t="n">
         <v>31.21222238001735</v>
@@ -5039,52 +5041,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J11" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K11" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L11" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M11" t="n">
-        <v>812.642214563296</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N11" t="n">
-        <v>812.642214563296</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O11" t="n">
-        <v>812.642214563296</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P11" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q11" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R11" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T11" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U11" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V11" t="n">
-        <v>1130.308153591121</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W11" t="n">
-        <v>1130.308153591121</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="X11" t="n">
-        <v>1130.308153591121</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="Y11" t="n">
-        <v>1130.308153591121</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>710.0430642665517</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C12" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D12" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F12" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G12" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H12" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I12" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K12" t="n">
-        <v>610.2763318953653</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L12" t="n">
-        <v>996.52758384808</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="M12" t="n">
-        <v>1382.778835800795</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.051599638238</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O12" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P12" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q12" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R12" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S12" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T12" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U12" t="n">
-        <v>1203.918444326094</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V12" t="n">
-        <v>990.2069173191283</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W12" t="n">
-        <v>990.2069173191283</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="X12" t="n">
-        <v>990.2069173191283</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y12" t="n">
-        <v>830.8049576829583</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.5256387580364</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C14" t="n">
-        <v>165.5256387580364</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D14" t="n">
-        <v>165.5256387580364</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E14" t="n">
-        <v>165.5256387580364</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F14" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G14" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H14" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I14" t="n">
         <v>31.21222238001735</v>
@@ -5318,10 +5320,10 @@
         <v>953.7130725968584</v>
       </c>
       <c r="X14" t="n">
-        <v>953.7130725968584</v>
+        <v>559.6193556774474</v>
       </c>
       <c r="Y14" t="n">
-        <v>559.6193556774474</v>
+        <v>165.5256387580364</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C15" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D15" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E15" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F15" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G15" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H15" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I15" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J15" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K15" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L15" t="n">
-        <v>224.0250799426506</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M15" t="n">
-        <v>610.2763318953653</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N15" t="n">
-        <v>996.52758384808</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O15" t="n">
-        <v>1382.778835800795</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P15" t="n">
-        <v>1382.778835800795</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q15" t="n">
         <v>1560.611119000868</v>
@@ -5382,25 +5384,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S15" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T15" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U15" t="n">
-        <v>1293.279245302185</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V15" t="n">
-        <v>1293.279245302185</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W15" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X15" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y15" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="16">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.21222238001735</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C17" t="n">
-        <v>31.21222238001735</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D17" t="n">
-        <v>31.21222238001735</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E17" t="n">
-        <v>31.21222238001735</v>
+        <v>853.568295645779</v>
       </c>
       <c r="F17" t="n">
-        <v>31.21222238001735</v>
+        <v>432.5378835994666</v>
       </c>
       <c r="G17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>671.6489458004863</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L17" t="n">
-        <v>788.1086150954382</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M17" t="n">
-        <v>1174.359867048153</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N17" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O17" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1338.404634947726</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1081.344143207237</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>731.5065885437173</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>347.7462876788858</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>31.21222238001735</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.21222238001735</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>657.6354495973663</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C18" t="n">
-        <v>523.640378346312</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>438.40224385513</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>317.909427847458</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>208.9495480299626</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>101.9594353443013</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>224.0250799426506</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>610.2763318953653</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M18" t="n">
-        <v>758.5490957328082</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N18" t="n">
-        <v>1144.800347685523</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O18" t="n">
-        <v>1531.051599638238</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P18" t="n">
-        <v>1531.051599638238</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q18" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S18" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T18" t="n">
-        <v>1560.611119000868</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1560.611119000868</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V18" t="n">
-        <v>1346.899591993901</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1133.66642373023</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
-        <v>957.340441869123</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>797.938482232953</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1004.20002678548</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C19" t="n">
-        <v>833.1066543471966</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D19" t="n">
-        <v>673.6120096701065</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E19" t="n">
-        <v>512.7011945384261</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F19" t="n">
-        <v>348.0700686490173</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G19" t="n">
-        <v>180.8196775745607</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H19" t="n">
-        <v>31.21222238001735</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M19" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O19" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P19" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1374.219350880778</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T19" t="n">
-        <v>1374.219350880778</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U19" t="n">
-        <v>1374.219350880778</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="V19" t="n">
-        <v>1374.219350880778</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="W19" t="n">
-        <v>1374.219350880778</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="X19" t="n">
-        <v>1374.219350880778</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="Y19" t="n">
-        <v>1191.899733179524</v>
+        <v>1131.098935930739</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1285.863997266186</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.863997266186</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O20" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
         <v>2047.697635790537</v>
@@ -5777,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>2071.920434613485</v>
       </c>
       <c r="T20" t="n">
-        <v>1866.047797426961</v>
+        <v>1849.713950560344</v>
       </c>
       <c r="U20" t="n">
-        <v>1635.701551929705</v>
+        <v>1592.653458819854</v>
       </c>
       <c r="V20" t="n">
-        <v>1285.863997266186</v>
+        <v>1592.653458819854</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.863997266186</v>
+        <v>1592.653458819854</v>
       </c>
       <c r="X20" t="n">
-        <v>1285.863997266186</v>
+        <v>1592.653458819854</v>
       </c>
       <c r="Y20" t="n">
-        <v>1285.863997266186</v>
+        <v>1592.653458819854</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>537.7254774811266</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1054.568412147452</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N21" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O21" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5865,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>503.2668642681101</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="C22" t="n">
-        <v>503.2668642681101</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D22" t="n">
-        <v>503.2668642681101</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E22" t="n">
-        <v>503.2668642681101</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L22" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M22" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O22" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P22" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1485.891263925851</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S22" t="n">
-        <v>1299.499495805762</v>
+        <v>1816.589795035411</v>
       </c>
       <c r="T22" t="n">
-        <v>1059.950756782464</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U22" t="n">
-        <v>777.1526093285881</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="V22" t="n">
-        <v>503.2668642681101</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="W22" t="n">
-        <v>503.2668642681101</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="X22" t="n">
-        <v>503.2668642681101</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="Y22" t="n">
-        <v>503.2668642681101</v>
+        <v>1477.095862722104</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1455.826617762472</v>
+        <v>492.6927300678236</v>
       </c>
       <c r="C23" t="n">
-        <v>1455.826617762472</v>
+        <v>82.56813938109372</v>
       </c>
       <c r="D23" t="n">
-        <v>1455.826617762472</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E23" t="n">
-        <v>1041.486402279368</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F23" t="n">
-        <v>620.4559902330559</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G23" t="n">
-        <v>211.7277061258881</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L23" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M23" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N23" t="n">
-        <v>812.7934917636817</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O23" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6017,22 +6019,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>1866.047797426961</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X23" t="n">
-        <v>1866.047797426961</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y23" t="n">
-        <v>1866.047797426961</v>
+        <v>902.9139097323131</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>537.7254774811266</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M24" t="n">
-        <v>1054.568412147452</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.411346813777</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="O24" t="n">
-        <v>1571.411346813777</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6102,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>780.8810922913383</v>
+        <v>222.8892615030297</v>
       </c>
       <c r="C25" t="n">
-        <v>780.8810922913383</v>
+        <v>222.8892615030297</v>
       </c>
       <c r="D25" t="n">
-        <v>621.3864476142483</v>
+        <v>222.8892615030297</v>
       </c>
       <c r="E25" t="n">
-        <v>460.4756324825677</v>
+        <v>61.97844637134918</v>
       </c>
       <c r="F25" t="n">
-        <v>295.844506593159</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G25" t="n">
-        <v>128.5941155187024</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6172,25 +6174,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.950756782464</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U25" t="n">
-        <v>1059.950756782464</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V25" t="n">
-        <v>1059.950756782464</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W25" t="n">
-        <v>780.8810922913383</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X25" t="n">
-        <v>780.8810922913383</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="Y25" t="n">
-        <v>780.8810922913383</v>
+        <v>410.5889678970741</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>456.1053011127053</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C26" t="n">
-        <v>456.1053011127053</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D26" t="n">
-        <v>456.1053011127053</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N26" t="n">
+        <v>1075.450954962252</v>
+      </c>
+      <c r="O26" t="n">
         <v>1592.293889628578</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1767.09327468481</v>
       </c>
       <c r="P26" t="n">
         <v>1767.09327468481</v>
@@ -6251,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="V26" t="n">
-        <v>2051.666852524984</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="W26" t="n">
-        <v>1667.906551660152</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="X26" t="n">
-        <v>1267.263153829105</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y26" t="n">
-        <v>866.3264807771948</v>
+        <v>1330.123324390014</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L27" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N27" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O27" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q27" t="n">
         <v>2058.694762117472</v>
@@ -6336,19 +6338,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1131.098935930739</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6409,25 +6411,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>1384.772214130362</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W28" t="n">
-        <v>1384.772214130362</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X28" t="n">
-        <v>1384.772214130362</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y28" t="n">
-        <v>1160.036515519127</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1277.384018269584</v>
+        <v>1662.342150385648</v>
       </c>
       <c r="C29" t="n">
-        <v>867.259427582854</v>
+        <v>1252.217559698918</v>
       </c>
       <c r="D29" t="n">
-        <v>462.7954976759145</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="E29" t="n">
-        <v>462.7954976759145</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N29" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O29" t="n">
         <v>2047.697635790537</v>
@@ -6488,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>2062.985548216695</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>2062.985548216695</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>2062.985548216695</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>2062.985548216695</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>2062.985548216695</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1662.342150385648</v>
       </c>
       <c r="Y29" t="n">
-        <v>1687.605197934073</v>
+        <v>1662.342150385648</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L30" t="n">
-        <v>537.7254774811266</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N30" t="n">
-        <v>1571.411346813777</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>372.3531027449756</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="C31" t="n">
-        <v>201.259730306692</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="D31" t="n">
-        <v>41.76508562960205</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="E31" t="n">
-        <v>41.76508562960205</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F31" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G31" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6646,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T31" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U31" t="n">
-        <v>1331.615243227154</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V31" t="n">
-        <v>1302.202034381698</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W31" t="n">
-        <v>1023.132369890572</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="X31" t="n">
-        <v>784.7885077502552</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="Y31" t="n">
-        <v>560.0528091390199</v>
+        <v>549.0186571248826</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1704.493980615271</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="C32" t="n">
-        <v>1294.369389928541</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="D32" t="n">
-        <v>889.9054600216014</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E32" t="n">
-        <v>475.5652445384981</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F32" t="n">
-        <v>54.53483249218561</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G32" t="n">
-        <v>54.53483249218561</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="L32" t="n">
-        <v>692.8507596625949</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M32" t="n">
+        <v>692.8507596625946</v>
+      </c>
+      <c r="N32" t="n">
         <v>1209.69369432892</v>
       </c>
-      <c r="N32" t="n">
-        <v>1726.536628995245</v>
-      </c>
       <c r="O32" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
         <v>1726.536628995245</v>
@@ -6734,16 +6736,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.493980615271</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="X32" t="n">
-        <v>1704.493980615271</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="Y32" t="n">
-        <v>1704.493980615271</v>
+        <v>1738.416726816582</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K33" t="n">
-        <v>537.7254774811266</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L33" t="n">
-        <v>537.7254774811266</v>
+        <v>704.723947463468</v>
       </c>
       <c r="M33" t="n">
-        <v>1054.568412147452</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N33" t="n">
-        <v>1571.411346813777</v>
+        <v>704.723947463468</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6813,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>372.3531027449756</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="C34" t="n">
-        <v>201.259730306692</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76508562960205</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960205</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960205</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="G34" t="n">
-        <v>41.76508562960205</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6880,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S34" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V34" t="n">
-        <v>1302.202034381698</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W34" t="n">
-        <v>1023.132369890572</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X34" t="n">
-        <v>784.7885077502552</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.0528091390199</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1687.610883649055</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="C35" t="n">
-        <v>1687.610883649055</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="D35" t="n">
-        <v>1283.146953742115</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E35" t="n">
-        <v>868.806738259012</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F35" t="n">
-        <v>447.7763262126996</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
@@ -6941,19 +6943,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>692.8507596625949</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M35" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N35" t="n">
-        <v>1726.536628995245</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O35" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P35" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6962,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.610883649055</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="Y35" t="n">
-        <v>1687.610883649055</v>
+        <v>1596.772494638468</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K36" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L36" t="n">
-        <v>675.1644281008383</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="M36" t="n">
-        <v>1192.007362767164</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="N36" t="n">
-        <v>1192.007362767164</v>
+        <v>675.164428100838</v>
       </c>
       <c r="O36" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
         <v>2058.694762117472</v>
@@ -7050,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="37">
@@ -7072,43 +7074,43 @@
         <v>1648.189235160388</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E37" t="n">
         <v>1156.690402913334</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M37" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P37" t="n">
         <v>2022.726251677591</v>
@@ -7117,28 +7119,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X37" t="n">
-        <v>2002.981563155502</v>
+        <v>2060.624640165668</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>456.1053011127053</v>
+        <v>286.4380814948619</v>
       </c>
       <c r="C38" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D38" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L38" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M38" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N38" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O38" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P38" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q38" t="n">
         <v>2047.697635790537</v>
@@ -7199,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V38" t="n">
-        <v>1651.023454693936</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W38" t="n">
-        <v>1267.263153829105</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="X38" t="n">
-        <v>1267.263153829105</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="Y38" t="n">
-        <v>866.3264807771948</v>
+        <v>696.6592611593513</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>41.76508562960205</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M39" t="n">
-        <v>508.1659581184966</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="N39" t="n">
-        <v>1025.008892784822</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O39" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P39" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q39" t="n">
         <v>2058.694762117472</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>271.1259876104392</v>
+        <v>362.4659132624289</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0326151721557</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D40" t="n">
-        <v>100.0326151721557</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7366,16 +7368,16 @@
         <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>774.9313507128002</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W40" t="n">
-        <v>495.8616862216745</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="X40" t="n">
-        <v>495.8616862216745</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="Y40" t="n">
-        <v>271.1259876104392</v>
+        <v>550.1656196564733</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>451.8896763163319</v>
+        <v>1277.096428763702</v>
       </c>
       <c r="C41" t="n">
-        <v>41.76508562960205</v>
+        <v>866.9718380769724</v>
       </c>
       <c r="D41" t="n">
-        <v>41.76508562960205</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E41" t="n">
-        <v>41.76508562960205</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L41" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M41" t="n">
-        <v>1250.250340018485</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N41" t="n">
-        <v>1250.250340018485</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O41" t="n">
-        <v>1767.09327468481</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7445,16 +7447,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>2047.45122772861</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1663.690926863779</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>1263.047529032731</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y41" t="n">
-        <v>862.1108559808214</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
         <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N42" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1014.752890035065</v>
+        <v>1158.40534984338</v>
       </c>
       <c r="C43" t="n">
-        <v>843.6595175967814</v>
+        <v>987.3119774050965</v>
       </c>
       <c r="D43" t="n">
-        <v>684.1648729196913</v>
+        <v>987.3119774050965</v>
       </c>
       <c r="E43" t="n">
-        <v>523.2540577880108</v>
+        <v>890.7369018231168</v>
       </c>
       <c r="F43" t="n">
-        <v>358.622931898602</v>
+        <v>726.1057759337081</v>
       </c>
       <c r="G43" t="n">
-        <v>191.3725408241454</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V43" t="n">
-        <v>1212.005518865373</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W43" t="n">
-        <v>1212.005518865373</v>
+        <v>1809.184616988976</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.005518865373</v>
+        <v>1570.84075484866</v>
       </c>
       <c r="Y43" t="n">
-        <v>1202.452596429109</v>
+        <v>1346.105056237424</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.517402081457</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C44" t="n">
-        <v>1166.517402081457</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D44" t="n">
-        <v>1166.517402081457</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E44" t="n">
-        <v>905.7514189017662</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F44" t="n">
-        <v>511.6577019823552</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G44" t="n">
-        <v>117.5639850629442</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>40.13971065786654</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>426.3909626105813</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>812.642214563296</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M44" t="n">
-        <v>812.642214563296</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N44" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O44" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.611119000868</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X44" t="n">
-        <v>1560.611119000868</v>
+        <v>352.673583001884</v>
       </c>
       <c r="Y44" t="n">
-        <v>1166.517402081457</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.0831844490563</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>467.088113198002</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D45" t="n">
-        <v>350.1909554173944</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>229.6981394097224</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M45" t="n">
-        <v>372.2978437800934</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N45" t="n">
-        <v>758.5490957328082</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O45" t="n">
-        <v>1144.800347685523</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P45" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>882.216907433437</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>668.9837391697657</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>601.0831844490563</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>601.0831844490563</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.3421805164801</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C46" t="n">
-        <v>516.2488080781966</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>356.7541634011066</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>195.8433482694261</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U46" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V46" t="n">
-        <v>1560.611119000868</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.121447662076</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.77758552176</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y46" t="n">
-        <v>875.0418869105245</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>479.289169423434</v>
+        <v>422.5591119693194</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O2" t="n">
-        <v>235.6072188205403</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8064,13 +8066,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>244.2964801173478</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P3" t="n">
         <v>444.4124147530206</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
@@ -8225,19 +8227,19 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N5" t="n">
-        <v>235.3297339513765</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>143.633336985343</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>77.12530772875093</v>
+        <v>400.6454545179966</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N6" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P6" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,7 +8458,7 @@
         <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>278.8691500349403</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M8" t="n">
         <v>483.4430042072623</v>
@@ -8474,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>205.8849923335186</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>235.7076676518026</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P11" t="n">
-        <v>483.8021430311011</v>
+        <v>468.0383943543247</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>446.2673035610659</v>
+        <v>430.5035548842895</v>
       </c>
       <c r="M12" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N12" t="n">
-        <v>202.9638619164196</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M15" t="n">
-        <v>447.7170634886343</v>
+        <v>431.9533148118579</v>
       </c>
       <c r="N15" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.3211873938012</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9164,16 +9166,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>479.289169423434</v>
+        <v>292.3871721926162</v>
       </c>
       <c r="L17" t="n">
-        <v>213.1214276537053</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>483.4430042072623</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
@@ -9185,7 +9187,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>207.334752261087</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>443.3461731439669</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>447.9042587502169</v>
+        <v>266.9965351298658</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,22 +9406,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>228.7885022587807</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>395.5690244730511</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
-        <v>494.099071146226</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728293</v>
+        <v>529.1545888121299</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9878,19 +9880,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>270.2143986912198</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9957,22 +9959,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>527.2265162238739</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>175.4852242574857</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10115,16 +10117,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10191,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>97.25235142021801</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10346,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>224.7351163062145</v>
       </c>
       <c r="L32" t="n">
-        <v>496.3946935832878</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10425,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>362.0354133794551</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>265.359579940715</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10589,22 +10591,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>496.3946935832878</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760184</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>235.5014795744224</v>
+        <v>173.8482690683347</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10823,25 +10825,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>298.7361805822439</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M39" t="n">
-        <v>528.6762761514423</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
-        <v>537.3610023606261</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N42" t="n">
-        <v>524.3053858067747</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11160,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>82.34125626042834</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6381778130617</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
         <v>93.18977562578313</v>
@@ -11315,10 +11317,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>402.095214445565</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>236.8129664818568</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22562,10 +22564,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>293.9008939797168</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22629,13 +22631,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>88.26016951102955</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -22674,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.75978341624895</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1745055375994</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22771,7 +22773,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>57.06664624006473</v>
       </c>
     </row>
     <row r="5">
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.47239946385344</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>62.37677637587154</v>
       </c>
       <c r="D5" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22847,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="6">
@@ -22875,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22917,7 +22919,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>177.2211004410159</v>
+        <v>50.75978341624895</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>19.10615505383055</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,16 +22995,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324195087</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -23021,13 +23023,13 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>62.37677637587154</v>
       </c>
       <c r="D8" t="n">
-        <v>56.77272220387903</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -23087,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23100,16 +23102,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>80.40226432754852</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
         <v>105.9202115588047</v>
@@ -23166,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>88.26016951102957</v>
       </c>
     </row>
     <row r="10">
@@ -23179,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>70.43669735679153</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,16 +23235,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23270,10 +23272,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23315,16 +23317,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>54.26750781507576</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>43.05065602336595</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.34572782698827</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23400,7 +23402,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>84.90015143719303</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.96618811762767</v>
+        <v>273.1486856536058</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23504,7 +23506,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>369.338070767708</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -23513,7 +23515,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y14" t="n">
         <v>6.774526571173908</v>
@@ -23577,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23783,19 +23785,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>83.26823920685723</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23814,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>31.34243305653131</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23829,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>165.8790128972403</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23956,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.9919201008822</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23975,7 +23977,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>117.7577560558893</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>26.4471037808014</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24130,13 +24132,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.9699070214187</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>181.024424622228</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24206,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>360.0242673938933</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>139.536418107236</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24257,7 +24259,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24266,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>142.973587496185</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>62.15064105238856</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>341.7279481488657</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>310.1176244513169</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.1745055375999</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -24658,13 +24660,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,16 +24691,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>108.9122185230678</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -24743,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2847136108223367</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>133.7947536368605</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>242.0278108528714</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24919,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>260.1915007515363</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>295.1573630046015</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24974,10 +24976,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25090,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340647</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>4.874559219806486</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.689873088829529</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>121.8356015163171</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25217,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25375,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176236</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.0666462400645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>163.7970788732553</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>47.40892505241999</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>101.6168527332356</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25564,7 +25566,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>5.102348115700465</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>85.77295866692026</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -25646,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>305.9441559029069</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.6923821542038</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25843,16 +25845,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.0309484132214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>152.0384899803788</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>13.0765198219031</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25953,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>107.3411728689938</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.9450269688243</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26077,13 +26079,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477432.4230131101</v>
+        <v>477432.42301311</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477432.4230131101</v>
+        <v>477432.4230131102</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477432.4230131099</v>
+        <v>477432.4230131102</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>477432.4230131101</v>
+        <v>571208.7779660965</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>571208.7779660965</v>
+        <v>571208.7779660966</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>571208.7779660968</v>
+        <v>571208.7779660965</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>571208.7779660965</v>
+        <v>571208.7779660963</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571208.7779660966</v>
+        <v>571208.7779660965</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>571208.7779660966</v>
+        <v>571208.7779660965</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477432.4230131101</v>
+        <v>571208.7779660965</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>103370.7551601573</v>
       </c>
       <c r="D2" t="n">
-        <v>103370.7551601574</v>
+        <v>103370.7551601573</v>
       </c>
       <c r="E2" t="n">
         <v>103370.7551601573</v>
@@ -26326,7 +26328,7 @@
         <v>103370.7551601573</v>
       </c>
       <c r="G2" t="n">
-        <v>103370.7551601573</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="H2" t="n">
         <v>123668.3592209684</v>
@@ -26335,10 +26337,10 @@
         <v>123668.3592209684</v>
       </c>
       <c r="J2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="K2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="L2" t="n">
         <v>123668.3592209684</v>
@@ -26353,7 +26355,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="P2" t="n">
-        <v>103370.7551601573</v>
+        <v>123668.3592209684</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36154.76904703023</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102081.1339049657</v>
+        <v>102081.1339049658</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>31744.46367344755</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,22 +26432,22 @@
         <v>24529.74119267544</v>
       </c>
       <c r="G4" t="n">
-        <v>24529.74119267544</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="H4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="I4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="J4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="K4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.4924681404</v>
       </c>
       <c r="L4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="M4" t="n">
         <v>29404.49246814041</v>
@@ -26457,7 +26459,7 @@
         <v>29404.49246814041</v>
       </c>
       <c r="P4" t="n">
-        <v>24529.74119267544</v>
+        <v>29404.49246814042</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="G5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-109257.0450495633</v>
       </c>
       <c r="C6" t="n">
-        <v>21492.12495866868</v>
+        <v>21492.12495866865</v>
       </c>
       <c r="D6" t="n">
-        <v>21492.12495866872</v>
+        <v>21492.12495866869</v>
       </c>
       <c r="E6" t="n">
-        <v>55119.7249586687</v>
+        <v>55119.72495866867</v>
       </c>
       <c r="F6" t="n">
-        <v>55119.7249586687</v>
+        <v>55119.72495866868</v>
       </c>
       <c r="G6" t="n">
-        <v>55119.72495866871</v>
+        <v>26367.6326273002</v>
       </c>
       <c r="H6" t="n">
-        <v>26931.68316799042</v>
+        <v>62522.40167433045</v>
       </c>
       <c r="I6" t="n">
-        <v>62522.40167433039</v>
+        <v>62522.40167433045</v>
       </c>
       <c r="J6" t="n">
-        <v>-39558.73223063539</v>
+        <v>-39558.73223063533</v>
       </c>
       <c r="K6" t="n">
-        <v>62522.40167433034</v>
+        <v>62522.40167433042</v>
       </c>
       <c r="L6" t="n">
-        <v>62522.40167433039</v>
+        <v>62522.40167433043</v>
       </c>
       <c r="M6" t="n">
-        <v>62522.40167433041</v>
+        <v>62522.40167433046</v>
       </c>
       <c r="N6" t="n">
-        <v>62522.40167433041</v>
+        <v>62522.40167433042</v>
       </c>
       <c r="O6" t="n">
+        <v>30777.93800088287</v>
+      </c>
+      <c r="P6" t="n">
         <v>62522.40167433042</v>
-      </c>
-      <c r="P6" t="n">
-        <v>55119.72495866867</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="I4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="J4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="K4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="L4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="M4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="N4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="O4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="P4" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="I4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="J4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="K4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="L4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P4" t="n">
-        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>333.4227222961022</v>
+      </c>
+      <c r="L2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O2" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34784,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>186.5450011173478</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>186.5450011173479</v>
       </c>
       <c r="P3" t="n">
         <v>390.1527797502169</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N5" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>49.9839737044588</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>344.5309307071475</v>
+      </c>
+      <c r="M6" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L6" t="n">
-        <v>21.01078391790188</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L8" t="n">
-        <v>183.3837519720955</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M8" t="n">
         <v>390.1527797502169</v>
@@ -35194,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L9" t="n">
-        <v>149.7704685226696</v>
-      </c>
       <c r="M9" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M11" t="n">
-        <v>142.4174431947572</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P11" t="n">
-        <v>390.1527797502169</v>
+        <v>374.3890310734406</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>390.1527797502169</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="M12" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N12" t="n">
-        <v>149.7704685226696</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M15" t="n">
-        <v>390.1527797502169</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="N15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,16 +35886,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>390.1527797502169</v>
+        <v>203.250782519399</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6360295908604</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>390.1527797502169</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,22 +36126,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>135.5987266329976</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
-        <v>400.9092955204429</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700256</v>
+        <v>474.8949538093261</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36835,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="L32" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>306.2096305948397</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>209.2450561298659</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>179.3869557635733</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37543,25 +37545,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M39" t="n">
-        <v>471.1119924130248</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>29.85810036629282</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N42" t="n">
-        <v>471.1119924130247</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.017664927120396</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>390.1527797502169</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,10 +38037,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>344.5309307071475</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198590.2822994798</v>
+        <v>192133.1070305995</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12617883.90382514</v>
+        <v>12617883.90382512</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10943609.97017262</v>
+        <v>10943609.97017261</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C2" t="n">
-        <v>169.2103782980058</v>
+        <v>343.646568403991</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>27.46801669177194</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>43.79728017800306</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>43.73227063629167</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.4216953850582</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1527797502169</v>
+        <v>179.4404601920395</v>
       </c>
       <c r="C5" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>144.6175193369145</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -1040,7 +1040,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>73.92477447070571</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.7165542762734</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>86.54918498256383</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C8" t="n">
-        <v>343.646568403991</v>
+        <v>123.6621491913813</v>
       </c>
       <c r="D8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1280,7 +1280,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.5477705287787</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>98.94574135710913</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1347,16 +1347,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>43.7775672649076</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1438,7 +1438,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Y11" t="n">
-        <v>353.8766502980249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,19 +1454,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>89.66257060530309</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.1752199258842</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.9702822142388</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>72.08725208919876</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Y14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>15.09023863101106</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>156.74660489129</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>386.8650699901659</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>32.95238632371637</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385435</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
@@ -1943,7 +1943,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2016,10 +2016,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>24.66341075902456</v>
       </c>
       <c r="U19" t="n">
-        <v>114.0911530820968</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>72.0090915757028</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.17050839795085</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>7.623004784773252</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2295,19 +2295,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>98.94574135710913</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>40.39502321397676</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>227.5912701657711</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>20.01122713432967</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>141.0112212226571</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.39101971897887</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>100.6686005588248</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>266.2723283900668</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>53.4940593475393</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>223.951621299037</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>25.01604593077231</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>25.5069533435032</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>140.2277898563337</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>221.2302229280695</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42520756919144</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>5.610824918537025</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3322,13 +3322,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>132.6542853067679</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>346.6630339611676</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>48.63763618750129</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128979</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>242.2262659066072</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>71.88434366058382</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3720,16 +3720,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.3859935094225</v>
+        <v>119.5236191444598</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>314.6463319409498</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>296.0749067566611</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>95.60932482615992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>230.7382849889448</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>383.5604440308339</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>42.43741174507632</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>262.2537570519885</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.131796418407</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="C2" t="n">
         <v>31.21222238001735</v>
@@ -4330,25 +4330,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>361.3007174531585</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L2" t="n">
-        <v>747.5519694058733</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M2" t="n">
-        <v>1133.803221358588</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N2" t="n">
-        <v>1520.054473311303</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O2" t="n">
-        <v>1520.054473311303</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P2" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q2" t="n">
         <v>1520.054473311303</v>
@@ -4357,25 +4357,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U2" t="n">
-        <v>946.0630680013373</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V2" t="n">
-        <v>596.225513337818</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W2" t="n">
-        <v>596.225513337818</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X2" t="n">
-        <v>596.225513337818</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="Y2" t="n">
-        <v>596.225513337818</v>
+        <v>772.4236851620456</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.9527650369019</v>
+        <v>256.7030979751154</v>
       </c>
       <c r="C3" t="n">
-        <v>58.9576937858476</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="D3" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="E3" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="F3" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="G3" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H3" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
@@ -4412,49 +4412,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7046310488249</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N3" t="n">
-        <v>408.7046310488249</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O3" t="n">
-        <v>794.9558830015396</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P3" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q3" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1452.621109115176</v>
+        <v>1516.37144205339</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302185</v>
+        <v>1357.029578240398</v>
       </c>
       <c r="U3" t="n">
-        <v>1095.928434440403</v>
+        <v>1159.678767378617</v>
       </c>
       <c r="V3" t="n">
-        <v>882.216907433437</v>
+        <v>945.9672403716505</v>
       </c>
       <c r="W3" t="n">
-        <v>668.9837391697657</v>
+        <v>732.7340721079793</v>
       </c>
       <c r="X3" t="n">
-        <v>492.6577573086585</v>
+        <v>556.408090246872</v>
       </c>
       <c r="Y3" t="n">
-        <v>333.2557976724885</v>
+        <v>397.0061306107021</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.546072681154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C4" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D4" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J4" t="n">
         <v>45.29477178522787</v>
@@ -4512,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S4" t="n">
-        <v>1475.338400676267</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T4" t="n">
-        <v>1475.338400676267</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U4" t="n">
-        <v>1475.338400676267</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V4" t="n">
-        <v>1475.338400676267</v>
+        <v>817.5354583664239</v>
       </c>
       <c r="W4" t="n">
-        <v>1475.338400676267</v>
+        <v>538.4657938752982</v>
       </c>
       <c r="X4" t="n">
-        <v>1475.338400676267</v>
+        <v>300.1219317349816</v>
       </c>
       <c r="Y4" t="n">
-        <v>1308.245779075198</v>
+        <v>75.38623312374631</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C5" t="n">
         <v>31.21222238001735</v>
@@ -4567,22 +4567,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L5" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M5" t="n">
-        <v>803.7147262854468</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N5" t="n">
-        <v>803.7147262854468</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O5" t="n">
-        <v>1189.965978238161</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P5" t="n">
         <v>1239.450112205576</v>
@@ -4594,25 +4594,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000868</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.611119000868</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="X5" t="n">
-        <v>1166.517402081457</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="Y5" t="n">
-        <v>772.4236851620456</v>
+        <v>212.4652124729866</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511.5571472368467</v>
+        <v>402.5972674193512</v>
       </c>
       <c r="C6" t="n">
-        <v>377.5620759857924</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="D6" t="n">
-        <v>260.6649182051848</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E6" t="n">
-        <v>140.1721021975128</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F6" t="n">
         <v>31.21222238001735</v>
@@ -4646,28 +4646,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L6" t="n">
-        <v>372.2978437800934</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M6" t="n">
-        <v>758.5490957328082</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N6" t="n">
-        <v>1144.800347685523</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q6" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R6" t="n">
         <v>1560.611119000868</v>
@@ -4676,22 +4676,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T6" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U6" t="n">
-        <v>1414.532816640348</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V6" t="n">
-        <v>1200.821289633382</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W6" t="n">
-        <v>987.5881213697105</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X6" t="n">
-        <v>811.2621395086032</v>
+        <v>702.3022596911078</v>
       </c>
       <c r="Y6" t="n">
-        <v>651.8601798724333</v>
+        <v>542.9003000549378</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.546072681154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C7" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D7" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
@@ -4749,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S7" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T7" t="n">
-        <v>1288.946632556178</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.946632556178</v>
+        <v>1047.247192683173</v>
       </c>
       <c r="V7" t="n">
-        <v>1288.946632556178</v>
+        <v>773.3614476226949</v>
       </c>
       <c r="W7" t="n">
-        <v>1288.946632556178</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="X7" t="n">
-        <v>1288.946632556178</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y7" t="n">
-        <v>1288.946632556178</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.517402081457</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="C8" t="n">
         <v>819.3996562188394</v>
       </c>
       <c r="D8" t="n">
+        <v>819.3996562188394</v>
+      </c>
+      <c r="E8" t="n">
         <v>425.3059392994284</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.21222238001735</v>
       </c>
       <c r="F8" t="n">
         <v>31.21222238001735</v>
@@ -4810,22 +4810,22 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L8" t="n">
-        <v>812.642214563296</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M8" t="n">
-        <v>1198.893466516011</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N8" t="n">
-        <v>1198.893466516011</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O8" t="n">
-        <v>1198.893466516011</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R8" t="n">
         <v>1560.611119000868</v>
@@ -4834,22 +4834,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>282.1044514116792</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C9" t="n">
-        <v>148.1093801606249</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D9" t="n">
-        <v>31.21222238001735</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E9" t="n">
         <v>31.21222238001735</v>
@@ -4886,49 +4886,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>610.2763318953653</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M9" t="n">
-        <v>794.9558830015396</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N9" t="n">
-        <v>794.9558830015396</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O9" t="n">
-        <v>794.9558830015396</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P9" t="n">
-        <v>1181.207134954254</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V9" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W9" t="n">
-        <v>668.9837391697657</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X9" t="n">
-        <v>492.6577573086585</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y9" t="n">
-        <v>422.4074840472659</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1049.39789353288</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C10" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D10" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E10" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F10" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4986,28 +4986,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1531.250148669201</v>
       </c>
       <c r="S10" t="n">
-        <v>1288.946632556178</v>
+        <v>1344.858380549111</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1105.309641525814</v>
       </c>
       <c r="U10" t="n">
-        <v>1049.39789353288</v>
+        <v>822.5114940719377</v>
       </c>
       <c r="V10" t="n">
-        <v>1049.39789353288</v>
+        <v>548.6257490114597</v>
       </c>
       <c r="W10" t="n">
-        <v>1049.39789353288</v>
+        <v>269.556084520334</v>
       </c>
       <c r="X10" t="n">
-        <v>1049.39789353288</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="Y10" t="n">
-        <v>1049.39789353288</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.21222238001735</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="C11" t="n">
-        <v>31.21222238001735</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="D11" t="n">
-        <v>31.21222238001735</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="E11" t="n">
-        <v>31.21222238001735</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="F11" t="n">
-        <v>31.21222238001735</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="G11" t="n">
-        <v>31.21222238001735</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="H11" t="n">
         <v>31.21222238001735</v>
@@ -5041,52 +5041,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J11" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K11" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L11" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M11" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N11" t="n">
-        <v>803.7147262854468</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O11" t="n">
-        <v>1189.965978238161</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P11" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R11" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T11" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U11" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V11" t="n">
-        <v>1560.611119000868</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W11" t="n">
-        <v>1176.850818136036</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="X11" t="n">
-        <v>782.7571012166252</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="Y11" t="n">
-        <v>425.3059392994284</v>
+        <v>75.43198729406544</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.2944728867919</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C12" t="n">
-        <v>555.2994016357376</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D12" t="n">
-        <v>438.40224385513</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E12" t="n">
-        <v>317.909427847458</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F12" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G12" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H12" t="n">
         <v>31.21222238001735</v>
@@ -5120,52 +5120,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K12" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L12" t="n">
-        <v>401.8573631427234</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M12" t="n">
-        <v>788.1086150954382</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N12" t="n">
-        <v>1174.359867048153</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.611119000868</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P12" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q12" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R12" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S12" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T12" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U12" t="n">
-        <v>1293.279245302185</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V12" t="n">
-        <v>1079.567718295218</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W12" t="n">
-        <v>1079.567718295218</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X12" t="n">
-        <v>988.9994651585486</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y12" t="n">
-        <v>829.5975055223786</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.546072681154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C13" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D13" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E13" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F13" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G13" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H13" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I13" t="n">
         <v>31.21222238001735</v>
@@ -5223,28 +5223,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S13" t="n">
-        <v>1560.611119000868</v>
+        <v>1344.858380549111</v>
       </c>
       <c r="T13" t="n">
-        <v>1560.611119000868</v>
+        <v>1105.309641525814</v>
       </c>
       <c r="U13" t="n">
-        <v>1560.611119000868</v>
+        <v>822.5114940719377</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.611119000868</v>
+        <v>548.6257490114597</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.611119000868</v>
+        <v>269.556084520334</v>
       </c>
       <c r="X13" t="n">
-        <v>1532.981477686434</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="Y13" t="n">
-        <v>1308.245779075198</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.21222238001735</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="C14" t="n">
-        <v>31.21222238001735</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="D14" t="n">
-        <v>31.21222238001735</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="E14" t="n">
-        <v>31.21222238001735</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="F14" t="n">
-        <v>31.21222238001735</v>
+        <v>414.9361259030052</v>
       </c>
       <c r="G14" t="n">
-        <v>31.21222238001735</v>
+        <v>414.9361259030052</v>
       </c>
       <c r="H14" t="n">
-        <v>31.21222238001735</v>
+        <v>104.0276285307232</v>
       </c>
       <c r="I14" t="n">
         <v>31.21222238001735</v>
@@ -5281,49 +5281,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K14" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L14" t="n">
         <v>671.6489458004863</v>
       </c>
       <c r="M14" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N14" t="n">
-        <v>1444.151449705916</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O14" t="n">
-        <v>1520.054473311303</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P14" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q14" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R14" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S14" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T14" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U14" t="n">
-        <v>1303.550627260378</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V14" t="n">
-        <v>953.7130725968584</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W14" t="n">
-        <v>953.7130725968584</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X14" t="n">
-        <v>559.6193556774474</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="Y14" t="n">
-        <v>165.5256387580364</v>
+        <v>809.0298428224162</v>
       </c>
     </row>
     <row r="15">
@@ -5339,16 +5339,16 @@
         <v>166.9477036715389</v>
       </c>
       <c r="D15" t="n">
-        <v>151.7050383876894</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="E15" t="n">
-        <v>31.21222238001735</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="F15" t="n">
-        <v>31.21222238001735</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="G15" t="n">
-        <v>31.21222238001735</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="H15" t="n">
         <v>31.21222238001735</v>
@@ -5357,28 +5357,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J15" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K15" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M15" t="n">
-        <v>788.1086150954382</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N15" t="n">
-        <v>788.1086150954382</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O15" t="n">
-        <v>1174.359867048153</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P15" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q15" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R15" t="n">
         <v>1560.611119000868</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.21222238001735</v>
+        <v>351.6176821887879</v>
       </c>
       <c r="C16" t="n">
-        <v>31.21222238001735</v>
+        <v>351.6176821887879</v>
       </c>
       <c r="D16" t="n">
-        <v>31.21222238001735</v>
+        <v>192.1230375116979</v>
       </c>
       <c r="E16" t="n">
         <v>31.21222238001735</v>
@@ -5463,25 +5463,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S16" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T16" t="n">
-        <v>1049.39789353288</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U16" t="n">
-        <v>766.5997460790038</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V16" t="n">
-        <v>492.7140010185257</v>
+        <v>1201.452655615789</v>
       </c>
       <c r="W16" t="n">
-        <v>213.6443365274001</v>
+        <v>922.3829911246635</v>
       </c>
       <c r="X16" t="n">
-        <v>31.21222238001735</v>
+        <v>764.0530871940675</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.21222238001735</v>
+        <v>539.3173885828322</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815612</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128882</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D17" t="n">
-        <v>1267.908511128882</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
-        <v>853.568295645779</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>432.5378835994666</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1688317915614</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L17" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M17" t="n">
-        <v>1530.854701124212</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N17" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5627,19 +5627,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1131.098935930739</v>
+        <v>654.7464449846486</v>
       </c>
       <c r="C19" t="n">
-        <v>960.0055634924552</v>
+        <v>483.6530725463652</v>
       </c>
       <c r="D19" t="n">
-        <v>800.5109188153651</v>
+        <v>483.6530725463652</v>
       </c>
       <c r="E19" t="n">
-        <v>639.6001036836846</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9689777942758</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198192</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H19" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1246.342524902554</v>
+        <v>1359.859678010135</v>
       </c>
       <c r="U19" t="n">
-        <v>1131.098935930739</v>
+        <v>1359.859678010135</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.098935930739</v>
+        <v>1359.859678010135</v>
       </c>
       <c r="W19" t="n">
-        <v>1131.098935930739</v>
+        <v>1080.79001351901</v>
       </c>
       <c r="X19" t="n">
-        <v>1131.098935930739</v>
+        <v>842.446151378693</v>
       </c>
       <c r="Y19" t="n">
-        <v>1131.098935930739</v>
+        <v>842.446151378693</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1182.432279155364</v>
+        <v>518.9654716736151</v>
       </c>
       <c r="C20" t="n">
-        <v>1182.432279155364</v>
+        <v>518.9654716736151</v>
       </c>
       <c r="D20" t="n">
-        <v>1182.432279155364</v>
+        <v>114.5015417666756</v>
       </c>
       <c r="E20" t="n">
-        <v>1182.432279155364</v>
+        <v>114.5015417666756</v>
       </c>
       <c r="F20" t="n">
-        <v>761.4018671090519</v>
+        <v>114.5015417666756</v>
       </c>
       <c r="G20" t="n">
-        <v>352.673583001884</v>
+        <v>114.5015417666756</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2071.920434613485</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>1849.713950560344</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>1592.653458819854</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V20" t="n">
-        <v>1592.653458819854</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W20" t="n">
-        <v>1592.653458819854</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X20" t="n">
-        <v>1592.653458819854</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y20" t="n">
-        <v>1592.653458819854</v>
+        <v>929.1866513381045</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
         <v>234.5779431922353</v>
@@ -5837,19 +5837,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M21" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N21" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O21" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P21" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q21" t="n">
         <v>2058.694762117472</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1477.095862722104</v>
+        <v>220.5584629009898</v>
       </c>
       <c r="C22" t="n">
-        <v>1477.095862722104</v>
+        <v>49.46509046270634</v>
       </c>
       <c r="D22" t="n">
-        <v>1317.601218045014</v>
+        <v>49.46509046270634</v>
       </c>
       <c r="E22" t="n">
-        <v>1156.690402913334</v>
+        <v>49.46509046270634</v>
       </c>
       <c r="F22" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2002.981563155501</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1816.589795035411</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1577.041056012114</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>1477.095862722104</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.095862722104</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W22" t="n">
-        <v>1477.095862722104</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="X22" t="n">
-        <v>1477.095862722104</v>
+        <v>632.9938679062695</v>
       </c>
       <c r="Y22" t="n">
-        <v>1477.095862722104</v>
+        <v>408.2581692950342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>492.6927300678236</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="C23" t="n">
-        <v>82.56813938109372</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="D23" t="n">
-        <v>41.76508562960203</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="E23" t="n">
-        <v>41.76508562960203</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O23" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P23" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q23" t="n">
         <v>2088.254281480102</v>
@@ -6016,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.49398061527</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X23" t="n">
-        <v>1303.850582784223</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="Y23" t="n">
-        <v>902.9139097323131</v>
+        <v>860.0557577311233</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>234.5779431922353</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L24" t="n">
-        <v>234.5779431922353</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M24" t="n">
-        <v>234.5779431922353</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N24" t="n">
-        <v>751.4208778585604</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O24" t="n">
-        <v>1268.263812524885</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.8892615030297</v>
+        <v>680.8359760815578</v>
       </c>
       <c r="C25" t="n">
-        <v>222.8892615030297</v>
+        <v>509.7426036432743</v>
       </c>
       <c r="D25" t="n">
-        <v>222.8892615030297</v>
+        <v>509.7426036432743</v>
       </c>
       <c r="E25" t="n">
-        <v>61.97844637134918</v>
+        <v>348.8317885115937</v>
       </c>
       <c r="F25" t="n">
-        <v>41.76508562960203</v>
+        <v>184.200662622185</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6171,28 +6171,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5443774486778</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V25" t="n">
-        <v>689.6586323881997</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="W25" t="n">
-        <v>410.5889678970741</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="X25" t="n">
-        <v>410.5889678970741</v>
+        <v>1093.271381086837</v>
       </c>
       <c r="Y25" t="n">
-        <v>410.5889678970741</v>
+        <v>868.5356824756021</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1265.081890330439</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C26" t="n">
-        <v>854.9572996437093</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D26" t="n">
-        <v>450.4933697367699</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E26" t="n">
-        <v>450.4933697367699</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M26" t="n">
-        <v>558.6080202959272</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O26" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>1952.973206274203</v>
+        <v>1986.568826370178</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.766722221061</v>
+        <v>1764.362342317037</v>
       </c>
       <c r="U26" t="n">
-        <v>1730.766722221061</v>
+        <v>1507.301850576547</v>
       </c>
       <c r="V26" t="n">
-        <v>1730.766722221061</v>
+        <v>1157.464295913028</v>
       </c>
       <c r="W26" t="n">
-        <v>1730.766722221061</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="X26" t="n">
-        <v>1330.123324390014</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y26" t="n">
-        <v>1330.123324390014</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O27" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6338,19 +6338,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.3531027449755</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C28" t="n">
-        <v>201.259730306692</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76508562960203</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E28" t="n">
-        <v>41.76508562960203</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F28" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V28" t="n">
-        <v>1302.202034381698</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="W28" t="n">
-        <v>1023.132369890572</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="X28" t="n">
-        <v>784.7885077502552</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.0528091390199</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1662.342150385648</v>
+        <v>689.0092565638307</v>
       </c>
       <c r="C29" t="n">
-        <v>1252.217559698918</v>
+        <v>689.0092565638307</v>
       </c>
       <c r="D29" t="n">
-        <v>847.7536297919787</v>
+        <v>689.0092565638307</v>
       </c>
       <c r="E29" t="n">
-        <v>847.7536297919787</v>
+        <v>689.0092565638307</v>
       </c>
       <c r="F29" t="n">
-        <v>847.7536297919787</v>
+        <v>267.9788445175183</v>
       </c>
       <c r="G29" t="n">
-        <v>439.0253456848109</v>
+        <v>267.9788445175183</v>
       </c>
       <c r="H29" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>497.1688317915614</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N29" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6490,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2062.985548216695</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2062.985548216695</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2062.985548216695</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2062.985548216695</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>2062.985548216695</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X29" t="n">
-        <v>1662.342150385648</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y29" t="n">
-        <v>1662.342150385648</v>
+        <v>689.0092565638307</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N30" t="n">
-        <v>1531.257211227551</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O30" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P30" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>549.0186571248826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>549.0186571248826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>549.0186571248826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6648,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1384.772214130362</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.974066676486</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V31" t="n">
-        <v>828.0883216160082</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W31" t="n">
-        <v>549.0186571248826</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X31" t="n">
-        <v>549.0186571248826</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y31" t="n">
-        <v>549.0186571248826</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1738.416726816582</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C32" t="n">
-        <v>1738.416726816582</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D32" t="n">
-        <v>1596.772494638468</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E32" t="n">
-        <v>1182.432279155364</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F32" t="n">
-        <v>761.4018671090519</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G32" t="n">
         <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>176.0078249962694</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>692.8507596625946</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M32" t="n">
-        <v>692.8507596625946</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N32" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O32" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P32" t="n">
         <v>1726.536628995245</v>
@@ -6727,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1507.301850576547</v>
       </c>
       <c r="V32" t="n">
-        <v>1738.416726816582</v>
+        <v>1157.464295913028</v>
       </c>
       <c r="W32" t="n">
-        <v>1738.416726816582</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="X32" t="n">
-        <v>1738.416726816582</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y32" t="n">
-        <v>1738.416726816582</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>704.723947463468</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>704.723947463468</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N33" t="n">
-        <v>704.723947463468</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O33" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.1971997769844</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="C34" t="n">
-        <v>224.1971997769844</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="D34" t="n">
-        <v>224.1971997769844</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E34" t="n">
-        <v>224.1971997769844</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F34" t="n">
-        <v>224.1971997769844</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G34" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6894,16 +6894,16 @@
         <v>777.1526093285881</v>
       </c>
       <c r="V34" t="n">
-        <v>503.2668642681101</v>
+        <v>771.485109410874</v>
       </c>
       <c r="W34" t="n">
-        <v>224.1971997769844</v>
+        <v>771.485109410874</v>
       </c>
       <c r="X34" t="n">
-        <v>224.1971997769844</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.1971997769844</v>
+        <v>533.1412472705574</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1596.772494638468</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C35" t="n">
-        <v>1596.772494638468</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D35" t="n">
-        <v>1596.772494638468</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E35" t="n">
-        <v>1182.432279155364</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F35" t="n">
-        <v>761.4018671090519</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G35" t="n">
         <v>352.673583001884</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M35" t="n">
-        <v>812.7934917636815</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N35" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O35" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6967,22 +6967,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>1596.772494638468</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V35" t="n">
-        <v>1596.772494638468</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W35" t="n">
-        <v>1596.772494638468</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="X35" t="n">
-        <v>1596.772494638468</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y35" t="n">
-        <v>1596.772494638468</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>158.3214934345128</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M36" t="n">
-        <v>158.3214934345128</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N36" t="n">
-        <v>675.164428100838</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O36" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q36" t="n">
         <v>2058.694762117472</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722104</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045014</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239252</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>1522.035056808531</v>
       </c>
       <c r="S37" t="n">
-        <v>2088.254281480102</v>
+        <v>1335.643288688442</v>
       </c>
       <c r="T37" t="n">
-        <v>2088.254281480102</v>
+        <v>1335.643288688442</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.254281480102</v>
+        <v>1052.845141234566</v>
       </c>
       <c r="V37" t="n">
-        <v>2088.254281480102</v>
+        <v>1052.845141234566</v>
       </c>
       <c r="W37" t="n">
-        <v>2088.254281480102</v>
+        <v>1052.845141234566</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>1052.845141234566</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554432</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>286.4380814948619</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C38" t="n">
-        <v>41.76508562960203</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960203</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960203</v>
+        <v>932.6662058731272</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960203</v>
+        <v>511.6357938268147</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L38" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M38" t="n">
-        <v>1530.854701124212</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N38" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O38" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
         <v>2047.697635790537</v>
@@ -7201,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>1831.193789739612</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V38" t="n">
-        <v>1481.356235076093</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.595934211261</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X38" t="n">
-        <v>1097.595934211261</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y38" t="n">
-        <v>696.6592611593513</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
@@ -7259,22 +7259,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1708.850297433488</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N39" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O39" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>362.4659132624289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7359,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V40" t="n">
-        <v>1048.817095773278</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W40" t="n">
-        <v>769.7474312821525</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X40" t="n">
-        <v>769.7474312821525</v>
+        <v>350.1957204523937</v>
       </c>
       <c r="Y40" t="n">
-        <v>550.1656196564733</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.096428763702</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="C41" t="n">
-        <v>866.9718380769724</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="D41" t="n">
-        <v>549.1472603588413</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="E41" t="n">
-        <v>549.1472603588413</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="F41" t="n">
-        <v>128.1168483125289</v>
+        <v>651.7391453823498</v>
       </c>
       <c r="G41" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N41" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O41" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7438,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y41" t="n">
-        <v>1687.317608428192</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
@@ -7499,16 +7499,16 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N42" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1158.40534984338</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>987.3119774050965</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>987.3119774050965</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>890.7369018231168</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>726.1057759337081</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1809.184616988976</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>1570.84075484866</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>1346.105056237424</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352.673583001884</v>
+        <v>1105.989063098952</v>
       </c>
       <c r="C44" t="n">
-        <v>352.673583001884</v>
+        <v>695.8644724122224</v>
       </c>
       <c r="D44" t="n">
-        <v>352.673583001884</v>
+        <v>695.8644724122224</v>
       </c>
       <c r="E44" t="n">
-        <v>352.673583001884</v>
+        <v>695.8644724122224</v>
       </c>
       <c r="F44" t="n">
-        <v>352.673583001884</v>
+        <v>274.83406036591</v>
       </c>
       <c r="G44" t="n">
-        <v>352.673583001884</v>
+        <v>274.83406036591</v>
       </c>
       <c r="H44" t="n">
         <v>41.76508562960205</v>
@@ -7654,46 +7654,46 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M44" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N44" t="n">
-        <v>2088.254281480102</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.868675817053</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W44" t="n">
-        <v>740.1083749522213</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="X44" t="n">
-        <v>352.673583001884</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="Y44" t="n">
-        <v>352.673583001884</v>
+        <v>1516.210242763442</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
         <v>469.7036984844747</v>
@@ -7718,34 +7718,34 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>558.6080202959273</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O45" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q45" t="n">
         <v>2088.254281480102</v>
@@ -7766,7 +7766,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.63115809937611</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
         <v>41.76508562960205</v>
@@ -7836,22 +7836,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1014.480089736098</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W46" t="n">
-        <v>735.4104252449724</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X46" t="n">
-        <v>497.0665631046558</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y46" t="n">
-        <v>272.3308644934205</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>422.5591119693194</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>236.0668064756412</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M3" t="n">
-        <v>244.1092848557653</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
-        <v>447.9042587502169</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P3" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>276.673976429141</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8233,7 +8233,7 @@
         <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>143.633336985343</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>400.6454545179966</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M6" t="n">
         <v>447.7170634886343</v>
@@ -8309,7 +8309,7 @@
         <v>443.3461731439669</v>
       </c>
       <c r="O6" t="n">
-        <v>447.9042587502169</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8318,7 +8318,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,25 +8458,25 @@
         <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>237.902841257602</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>276.5735275978786</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M9" t="n">
-        <v>244.1092848557653</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
@@ -8698,22 +8698,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O11" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P11" t="n">
-        <v>468.0383943543247</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L12" t="n">
-        <v>430.5035548842895</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>447.9042587502169</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L14" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>483.0650705068362</v>
+        <v>210.5483203474798</v>
       </c>
       <c r="O14" t="n">
-        <v>169.8594964393052</v>
+        <v>483.342555376</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M15" t="n">
-        <v>431.9533148118579</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>202.9638619164196</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>444.4124147530206</v>
@@ -9029,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>292.3871721926162</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>266.9965351298658</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>535.1658287548267</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,22 +9485,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M21" t="n">
-        <v>395.5690244730511</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O23" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9719,25 +9719,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>362.0354133794551</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>529.1545888121299</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>270.2143986912198</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>175.4852242574857</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>555.489182064824</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
@@ -10199,22 +10199,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.25235142021801</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>224.7351163062145</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>265.359579940715</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,13 +10442,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
@@ -10594,19 +10594,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N35" t="n">
-        <v>296.1630732760184</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>173.8482690683347</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10825,25 +10825,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>298.7361805822439</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10907,13 +10907,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
@@ -10922,10 +10922,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
         <v>93.29022445704545</v>
@@ -11074,13 +11074,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>553.1935596277623</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11144,22 +11144,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>425.427124839344</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11302,25 +11302,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>339.7024893595824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22549,7 +22549,7 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C2" t="n">
-        <v>236.8129664818568</v>
+        <v>62.37677637587154</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="3">
@@ -22631,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>88.26016951102955</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
@@ -22643,10 +22643,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>63.11282960883119</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.06664624006473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>226.678507675805</v>
       </c>
       <c r="C5" t="n">
-        <v>62.37677637587154</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -22916,10 +22916,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>50.75978341624895</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.10615505383055</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>193.4209809967733</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,16 +23023,16 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C8" t="n">
-        <v>62.37677637587154</v>
+        <v>282.3611955884813</v>
       </c>
       <c r="D8" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>20.04403357805535</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23074,7 +23074,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23105,10 +23105,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>88.26016951102957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23181,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>70.43669735679153</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,16 +23235,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23275,7 +23275,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>264.0218451336516</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>6.484184102520089</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.05065602336595</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23342,19 +23342,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
         <v>20.54110546596223</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>84.90015143719303</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>55.35263051300467</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>273.1486856536058</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23506,16 +23506,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>13.40099296689881</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>6.484184102520089</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>100.6379475717904</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>54.94950220363005</v>
       </c>
       <c r="I15" t="n">
         <v>20.54110546596223</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>79.21381862762345</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>17.77593127593025</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -23797,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>363.6845775290206</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>212.4898408740403</v>
       </c>
       <c r="U19" t="n">
-        <v>165.8790128972403</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23974,19 +23974,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>235.7903208228564</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>117.7577560558893</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24034,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.3618098457414</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>181.024424622228</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>360.0242673938933</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>169.0456936869659</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>142.973587496185</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>24.56666594105488</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.7279481488657</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>33.25966389501531</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24654,19 +24654,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>4.874559219806486</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>182.4663641713742</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>83.84779109952214</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>108.9122185230678</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,16 +24846,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>133.7947536368605</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24888,10 +24888,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>260.1915007515363</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>33.25966389501545</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25080,22 +25080,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68617307340647</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>265.5360626913362</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25162,13 +25162,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>121.8356015163171</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>33.25966389501548</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>35.78235495385305</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25377,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176236</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>163.7970788732553</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>332.7566576055123</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25566,7 +25566,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25599,7 +25599,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.102348115700465</v>
+        <v>102.9647224806632</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>85.77295866692026</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>108.5660945094351</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>63.6923821542038</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,13 +25876,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>77.06112740961436</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>13.0765198219031</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>126.9450269688243</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26076,13 +26076,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>8.893130557884717</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477432.42301311</v>
+        <v>477432.4230131101</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477432.4230131102</v>
+        <v>477432.4230131101</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>477432.4230131101</v>
+        <v>477432.4230131102</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477432.4230131102</v>
+        <v>477432.42301311</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>571208.7779660965</v>
+        <v>571208.7779660966</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>571208.7779660966</v>
+        <v>571208.7779660965</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>571208.7779660963</v>
+        <v>571208.7779660965</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571208.7779660965</v>
+        <v>571208.7779660966</v>
       </c>
     </row>
     <row r="13">
@@ -26316,10 +26316,10 @@
         <v>103370.7551601573</v>
       </c>
       <c r="C2" t="n">
-        <v>103370.7551601573</v>
+        <v>103370.7551601574</v>
       </c>
       <c r="D2" t="n">
-        <v>103370.7551601573</v>
+        <v>103370.7551601574</v>
       </c>
       <c r="E2" t="n">
         <v>103370.7551601573</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36154.76904703023</v>
+        <v>36154.76904703026</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31744.46367344755</v>
+        <v>31744.46367344758</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>24529.74119267544</v>
       </c>
       <c r="G4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="H4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="I4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="J4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="K4" t="n">
-        <v>29404.4924681404</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="L4" t="n">
         <v>29404.49246814041</v>
       </c>
       <c r="M4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="N4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="O4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="P4" t="n">
         <v>29404.49246814042</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109257.0450495633</v>
+        <v>-110090.7093248097</v>
       </c>
       <c r="C6" t="n">
-        <v>21492.12495866865</v>
+        <v>20658.46068342228</v>
       </c>
       <c r="D6" t="n">
-        <v>21492.12495866869</v>
+        <v>20658.46068342228</v>
       </c>
       <c r="E6" t="n">
-        <v>55119.72495866867</v>
+        <v>54286.06068342226</v>
       </c>
       <c r="F6" t="n">
-        <v>55119.72495866868</v>
+        <v>54286.06068342226</v>
       </c>
       <c r="G6" t="n">
-        <v>26367.6326273002</v>
+        <v>25690.10376790611</v>
       </c>
       <c r="H6" t="n">
-        <v>62522.40167433045</v>
+        <v>61844.87281493641</v>
       </c>
       <c r="I6" t="n">
-        <v>62522.40167433045</v>
+        <v>61844.87281493641</v>
       </c>
       <c r="J6" t="n">
-        <v>-39558.73223063533</v>
+        <v>-40236.26109002939</v>
       </c>
       <c r="K6" t="n">
-        <v>62522.40167433042</v>
+        <v>61844.87281493641</v>
       </c>
       <c r="L6" t="n">
-        <v>62522.40167433043</v>
+        <v>61844.8728149364</v>
       </c>
       <c r="M6" t="n">
-        <v>62522.40167433046</v>
+        <v>61844.87281493638</v>
       </c>
       <c r="N6" t="n">
-        <v>62522.40167433042</v>
+        <v>61844.87281493635</v>
       </c>
       <c r="O6" t="n">
-        <v>30777.93800088287</v>
+        <v>30100.4091414888</v>
       </c>
       <c r="P6" t="n">
-        <v>62522.40167433042</v>
+        <v>61844.87281493635</v>
       </c>
     </row>
   </sheetData>
@@ -26804,31 +26804,31 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
         <v>522.0635703700256</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5450011173478</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O3" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>390.1527797502169</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P5" t="n">
-        <v>49.9839737044588</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>344.5309307071475</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M6" t="n">
         <v>390.1527797502169</v>
@@ -35029,7 +35029,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="O6" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L8" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>183.3837519720955</v>
+      </c>
+      <c r="P8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
-        <v>390.1527797502169</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M9" t="n">
-        <v>186.5450011173479</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35418,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O11" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P11" t="n">
-        <v>374.3890310734406</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L12" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="P12" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N12" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O12" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>117.6360295908604</v>
+      </c>
+      <c r="O14" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N14" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O14" t="n">
-        <v>76.66972081352203</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M15" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="O15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>390.1527797502169</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>203.250782519399</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M21" t="n">
-        <v>338.0047407346337</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O23" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.2096305948397</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>176.5650354103356</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>117.7337452574857</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>460.0037840019792</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.55973291537929</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>209.2450561298659</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N35" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>117.7337452574857</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37545,25 +37545,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>203.2507825193991</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37627,13 +37627,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>460.0037840019792</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37864,22 +37864,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>367.8628411009266</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N44" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N45" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O45" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P45" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
